--- a/7.実装チュートリアル_Flutter-study.dev.xlsx
+++ b/7.実装チュートリアル_Flutter-study.dev.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\たかゆき\フリーランス\00.共通\スマホアプリ\Flutter\02_実装チュートリアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC31EF-3C18-4BB2-89E1-E52BD7C599A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23C839-D2BD-4E50-8F76-57D3A5E99666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="945" windowWidth="22575" windowHeight="14565" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
+    <workbookView xWindow="1950" yWindow="315" windowWidth="24660" windowHeight="14730" xr2:uid="{0BE16678-DAB6-4CE0-8A3B-53552A668965}"/>
   </bookViews>
   <sheets>
     <sheet name="実装チュートリアル(初級編)" sheetId="5" r:id="rId1"/>
     <sheet name="実装チュートリアル(中級編)" sheetId="8" r:id="rId2"/>
     <sheet name="実装チュートリアル(初級編)_実績" sheetId="7" r:id="rId3"/>
+    <sheet name="【補足】5-2. Authentication概要" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'【補足】5-2. Authentication概要'!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'実装チュートリアル(初級編)'!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'実装チュートリアル(初級編)_実績'!$A$1:$E$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'実装チュートリアル(中級編)'!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'実装チュートリアル(中級編)'!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Flutter実装チュートリアル</t>
     <rPh sb="7" eb="9">
@@ -193,6 +195,186 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>5-1. Firebase概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2. Authentication概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>概要</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firebaseプロジェクト作成・設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Authenticationの機能を有効化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firebase プロジェクト作成
+　・Googleアカウントを持っていない場合、作成する必要があります。</t>
+    <rPh sb="32" eb="33">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【補足】5-2. Authentication概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutterプロジェクト作成・設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にはWebサイトに沿って進行します。一部注意点のみ下記にしめします。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>チュウイテン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリ用セットアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能を実装してみる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Authentication用ライブラリをインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上でAuthenticationの実装は完了です。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Node.jsをインストールします
+　Url:https://nodejs.org/en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Firebase CLI をインストールします
+  PowerShallを起動し、インストールコマンドを入力します。</t>
+    <rPh sb="38" eb="40">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutterプロジェクト作成
+　・任意の空フォルダにプロジェクトを作成します。コマンド：「flutter create [任意のプロジェクト名]」</t>
+    <rPh sb="18" eb="20">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録機能を実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「https://console.firebase.google.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」からプロジェクトを選択します。</t>
+    </r>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +468,88 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,17 +769,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -536,6 +861,6818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124241</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3983937</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2902538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="図 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7568B425-58F8-FE0D-5ECC-48402C4B9ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1540567" y="85393695"/>
+          <a:ext cx="3859696" cy="2885973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7400741</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3795608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571364C6-AE95-59D5-02FF-A5C4B3846079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490869" y="42461746"/>
+          <a:ext cx="7326198" cy="3724253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69079</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6332054</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4899778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DD8459-EC6C-D960-6A54-6830B1664B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485405" y="26123348"/>
+          <a:ext cx="6262975" cy="4841800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6364818</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4501707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A786E73D-2163-0432-7D5F-B6B2AB5EB18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499152" y="1404885"/>
+          <a:ext cx="6281992" cy="4422039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>637761</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2315144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2360544</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2567609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16B02E2-DD5F-425E-B3C2-CC67D56C8FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2054087" y="3640361"/>
+          <a:ext cx="1722783" cy="252465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3684105</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2332538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7065065</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2758110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1106CBC4-7CD5-4747-A9AA-7D09A71C8FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5100431" y="3657755"/>
+          <a:ext cx="3380960" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93358"/>
+            <a:gd name="adj2" fmla="val -29850"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Default Account for Firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6353876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4627809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C44408-6001-03FF-E5B3-B63E0D7333B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499153" y="6261653"/>
+          <a:ext cx="6271049" cy="4569830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115959</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2609022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1606827</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3064565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492E7DB5-4CA8-48E3-AF8C-BE141F8E30AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1532285" y="8812696"/>
+          <a:ext cx="1490868" cy="455543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2847563</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2858329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6228523</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3283901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F25B2B3-3630-40F4-8BBE-B2EFE1296A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263889" y="9062003"/>
+          <a:ext cx="3380960" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93358"/>
+            <a:gd name="adj2" fmla="val -29850"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「構築」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2054088</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2385391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2592457</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2708413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5BA51B-54DE-4166-A9B7-C0A2ED1C84BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3470414" y="8589065"/>
+          <a:ext cx="538369" cy="323022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2849218</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2236305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6230178</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2661877</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6638AAB-E553-4670-8B0A-89FC0F0E03AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4265544" y="8439979"/>
+          <a:ext cx="3380960" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60531"/>
+            <a:gd name="adj2" fmla="val 30483"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「始める」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6341340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4671392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FAD3D4-E7DD-F27B-4915-648C05D00AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499151" y="11039315"/>
+          <a:ext cx="6258515" cy="4589968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2178325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1356946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2840935</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1673087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DEF6B8-DCAE-4D3C-BB99-09F79C7C8833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594651" y="12314837"/>
+          <a:ext cx="662610" cy="316141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3327951</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1631100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5872370</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2056672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="吹き出し: 角を丸めた四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98930E1-11FB-4EEA-A586-2775B5AC6197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4744277" y="12588991"/>
+          <a:ext cx="2544419" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71779"/>
+            <a:gd name="adj2" fmla="val -76560"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「ログイン方法」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2319131</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3013468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3404153</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3329609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394C998E-B092-4EF8-8790-A46C1B8F8666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3735457" y="13971359"/>
+          <a:ext cx="1085022" cy="316141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3891169</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3287622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6717196</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3713194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="吹き出し: 角を丸めた四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0281E29-24B4-4865-A8E9-24AE4B9AEF16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5307495" y="14245513"/>
+          <a:ext cx="2826027" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69437"/>
+            <a:gd name="adj2" fmla="val -74613"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「メール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74542</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6385891</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3929992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76083BA-B428-E9D9-0160-E868A9621297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490868" y="16911117"/>
+          <a:ext cx="6311349" cy="3865701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>902805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1325217</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1200979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1FF31A-1D74-48A6-8E0D-B6F83267A01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581979" y="17749631"/>
+          <a:ext cx="1159564" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2913823</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1143827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5830957</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1569399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="吹き出し: 角を丸めた四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5DE603-F560-4F6F-AD52-6094CA76AE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330149" y="17990653"/>
+          <a:ext cx="2917134" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -113128"/>
+            <a:gd name="adj2" fmla="val -74614"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「プロジェクトの概要」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2095498</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2524226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2435087</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2822400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A117F1-5336-4370-9A3B-D9801D403470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3511824" y="19371052"/>
+          <a:ext cx="339589" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3180520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2739573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6097654</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3165145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="吹き出し: 角を丸めた四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DA6B5B-D6E2-41F4-8A27-1845F9828023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4596846" y="19586399"/>
+          <a:ext cx="2917134" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76217"/>
+            <a:gd name="adj2" fmla="val -57098"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「ウェブ」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6316874</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5143500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BB4A6D-3745-6526-A4BD-85489A15F73D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499151" y="20937355"/>
+          <a:ext cx="6234049" cy="5070036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1929847</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1713421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2956891</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1938131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69988F2A-3BBC-4368-AA6B-0C35D09C66BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346173" y="22577312"/>
+          <a:ext cx="1027044" cy="224710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3559865</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1672834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6476999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2098406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="吹き出し: 角を丸めた四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AC2720-C6B3-4197-8B4E-CF753DCF0D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976191" y="22536725"/>
+          <a:ext cx="2917134" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72242"/>
+            <a:gd name="adj2" fmla="val -16227"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;script&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タグを使用する」を選択します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4199281</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4835138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4489174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5059848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE69575-CF26-43AA-983E-354EEC358D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615607" y="25699029"/>
+          <a:ext cx="289893" cy="224710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4181060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4247899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7098194</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4673471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="吹き出し: 角を丸めた四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA28B19-9CEB-4EA3-B670-B547DBF4803B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5597386" y="25111790"/>
+          <a:ext cx="2917134" cy="425572"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44701"/>
+            <a:gd name="adj2" fmla="val 94708"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「コピーアイコン」をクリックします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2149287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1147276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6211957</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4472608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE500E5-9958-44FC-99C1-EE6558FC091C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3565613" y="27212646"/>
+          <a:ext cx="4062670" cy="3325332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6514223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2517913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419879</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3238499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="吹き出し: 角を丸めた四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945AAD2E-26DB-46F1-9CE4-EF9EA1FBFE80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7930549" y="28583283"/>
+          <a:ext cx="2917134" cy="720586"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72242"/>
+            <a:gd name="adj2" fmla="val -16227"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;body&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タグに囲まれた部分を選択して右クリックメニューから貼り付けます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2148014</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4480891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6210684</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4650549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18822B69-A2C0-4C3B-B068-37C77F9D566F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3564340" y="30546261"/>
+          <a:ext cx="4062670" cy="169658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6570926</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4099891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="吹き出し: 角を丸めた四角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F472654E-0200-4906-B808-8B292A9E4FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987252" y="30165261"/>
+          <a:ext cx="3575269" cy="861391"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69394"/>
+            <a:gd name="adj2" fmla="val -513"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>② ①で貼り付けた下に「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;script src="main.dart.js" type="application/javascript"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を追記します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6236805</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4299416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56D8DD5-71D3-FF9A-0B47-1240D2A9FD43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1482588" y="32026992"/>
+          <a:ext cx="6170543" cy="4235011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1350064</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2145196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3081131</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2733262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AB7318-C351-458B-9E5C-0234C0E7F310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2766390" y="34107783"/>
+          <a:ext cx="1731067" cy="588066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3387588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2524340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5872370</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2956891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="吹き出し: 角を丸めた四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16CCA59-AC0F-4185-8DBA-591EFAB32D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803914" y="34486927"/>
+          <a:ext cx="2484782" cy="432551"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66563"/>
+            <a:gd name="adj2" fmla="val -58756"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①最新の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LTS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>版をクリックします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6245088</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1126435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0F6EDC-3D40-A726-03C4-6ED5F74BACD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490870" y="37064675"/>
+          <a:ext cx="6170544" cy="1002195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2128631</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>679175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4770783</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>927652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA6598E-CF0C-42DA-9913-ADCC8D44DAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3544957" y="37619610"/>
+          <a:ext cx="2642152" cy="248477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5193197</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>546653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1176130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="吹き出し: 角を丸めた四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FEC3BE-855E-40E1-9C12-5271E2F500A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6609523" y="37487088"/>
+          <a:ext cx="2484782" cy="629477"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68562"/>
+            <a:gd name="adj2" fmla="val -9441"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Firebae</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> CLI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をインストールします</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>npm install -g firebase-tools</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5875785</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2066833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89287E98-9B96-1CC4-C6A1-6C5D07B18FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1482587" y="38273935"/>
+          <a:ext cx="5809524" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2170044</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1772478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3553239</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2020955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E00D8F0-67DF-41D9-BC14-D4E13160573B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3586370" y="38712913"/>
+          <a:ext cx="1383195" cy="248477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3975652</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1490870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6460434</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2120347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="吹き出し: 角を丸めた四角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FFACA8-AC98-4546-9FFA-83A59CA4E918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391978" y="38431305"/>
+          <a:ext cx="2484782" cy="629477"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69895"/>
+            <a:gd name="adj2" fmla="val 14243"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Firebae</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にログインします</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2194893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5855804</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4113495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C384CC5E-308D-5CF0-AD6D-8A8BE3409D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466022" y="39135328"/>
+          <a:ext cx="5806108" cy="1918602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1615109</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2501349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3230217</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2724978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06A6779-9E26-43E0-BF5E-32817B40A394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3031435" y="39441784"/>
+          <a:ext cx="1615108" cy="223629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3967368</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2302566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6998803</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2932043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="吹き出し: 角を丸めた四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEACD28-4B0C-4820-8EDB-798DE8B22732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383694" y="39243001"/>
+          <a:ext cx="3031435" cy="629477"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -81562"/>
+            <a:gd name="adj2" fmla="val -1546"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Firebae</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロジェクト一覧を取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>します</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> projects:list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2426722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2650351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B58B98-248F-4F6D-B12E-72E568286BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1954695" y="43533309"/>
+          <a:ext cx="1176131" cy="223629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4066757</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1805526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7156174</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2194891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="吹き出し: 角を丸めた四角形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02539403-93DB-4665-9669-1418296D86CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5483083" y="42912113"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -132841"/>
+            <a:gd name="adj2" fmla="val 136349"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pubspec.yaml</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を選択し、ファイルを開きます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2691849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2562094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4422913</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2940326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922C08EF-2279-4A99-A97A-C71D42EBC292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4108175" y="43668681"/>
+          <a:ext cx="1731064" cy="378232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4704523</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2462703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3511826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="吹き出し: 角を丸めた四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7ADE0F-7A22-4FD2-ABD4-D51733B605B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6120849" y="47346160"/>
+          <a:ext cx="3288194" cy="1049123"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61641"/>
+            <a:gd name="adj2" fmla="val -14960"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dependencies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に追記します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>firebase_core: ^2.25.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>firebase_auth: ^4.17.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最新のバージョンに設定するのが望ましい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6195392</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1570570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14026567-141A-6FF0-0E22-353C107B02D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1482587" y="41195303"/>
+          <a:ext cx="6129131" cy="1481854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>447261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2244586</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>612913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EFF99D-36C9-499D-9977-4BD1F8343991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1731065" y="41553848"/>
+          <a:ext cx="1929847" cy="165652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4853607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>701627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="吹き出し: 角を丸めた四角形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903E1134-DE7F-4008-9F2D-0138707A181B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269933" y="41178737"/>
+          <a:ext cx="3031435" cy="629477"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -137573"/>
+            <a:gd name="adj2" fmla="val 14244"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コマンドで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Flutter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロジェクトのディレクトリに移動します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2194893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>618803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3760305</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>803413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA87BF3-F3F4-4E9A-A4DC-39AABFF42CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3611219" y="41725390"/>
+          <a:ext cx="1565412" cy="184610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5226326</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>767890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>621196</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1134717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="吹き出し: 角を丸めた四角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80741D03-EA1F-4FB8-9753-84A49586C0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6642652" y="41874477"/>
+          <a:ext cx="3031435" cy="366827"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -99322"/>
+            <a:gd name="adj2" fmla="val -70356"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>flutterfire configure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を実行します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1190302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1921564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1391477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EE6C7E-E2E2-4C30-9C37-E788121DD384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1648239" y="42296889"/>
+          <a:ext cx="1689651" cy="201175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2534479</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1234110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5565914</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1913282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="吹き出し: 角を丸めた四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E241A71F-A42F-4293-AD8F-61D3CED02012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3950805" y="42340697"/>
+          <a:ext cx="3031435" cy="679172"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73365"/>
+            <a:gd name="adj2" fmla="val -40328"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③上下ボタンでプロジェクトを選択し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を入力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6236805</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1539559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8565855E-A603-0050-5D7C-EA47750A0906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490871" y="42862500"/>
+          <a:ext cx="6162260" cy="1489863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140806</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1176131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>720588</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1377306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D187103B-AF71-4D2F-9735-00EA49DFBBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557132" y="43988935"/>
+          <a:ext cx="579782" cy="201175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2211458</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>844826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5242893</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1482083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="吹き出し: 角を丸めた四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4DB764-424B-42E1-8C6A-B0696240C5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3627784" y="44022065"/>
+          <a:ext cx="3031435" cy="637257"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102054"/>
+            <a:gd name="adj2" fmla="val 14586"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③上下ボタンで「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を入力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6758609</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>5079603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97B1288-66B9-62BB-8231-518570EB1237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466022" y="49412619"/>
+          <a:ext cx="6708913" cy="5006484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2302565</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1282380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4373217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1457739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEE84CA-B60E-494B-9992-B4C78730EE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718891" y="50621880"/>
+          <a:ext cx="2070652" cy="175359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5648740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>967641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414135</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1357006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="吹き出し: 角を丸めた四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FB98EE-E33E-4FEB-8158-4A206EF49D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7065066" y="50307141"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -92359"/>
+            <a:gd name="adj2" fmla="val 51261"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①追記します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2559326</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2160336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5665304</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2343978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230C7A06-AAA3-4942-A244-48F6D0967A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975652" y="51499836"/>
+          <a:ext cx="3105978" cy="183642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5988326</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1936706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66265</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2326071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="吹き出し: 角を丸めた四角形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A35CBE-A209-4624-8AB5-FBE09346E377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404652" y="51276206"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②追記します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51122</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6810138</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5110134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25286E5-49BB-796E-3A37-0F11412A680E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1467448" y="54607239"/>
+          <a:ext cx="6759016" cy="5043873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63092</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6824870</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5110133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAC9409-283D-B644-7DD6-806EA3B8CAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1479418" y="59806656"/>
+          <a:ext cx="6761778" cy="5045934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6279644</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1242392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357583</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1631757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="吹き出し: 角を丸めた四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB9CEC5-BAE2-44D2-924B-6D9257EF0AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7695970" y="55783370"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>違いなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6059700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2134851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137639</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2524216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="吹き出し: 角を丸めた四角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AD39F4-149C-494A-8C2D-F4DF0457002D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7476026" y="61877308"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>違いなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6833152</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5110133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FB53BC-1C80-94EC-26CC-2EBA67257C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1474303" y="64998136"/>
+          <a:ext cx="6775175" cy="5055932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6576390</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2812310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654329</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3201675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="吹き出し: 角を丸めた四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E7E633-5AB9-4A1B-825C-23AE9954A82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7992716" y="67756245"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>違いなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54106</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6858000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5143263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9730D94F-DDEA-36D3-D54F-6509E4E37B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470432" y="70211312"/>
+          <a:ext cx="6803894" cy="5077364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6390302</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1912921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468241</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2302286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="吹き出し: 角を丸めた四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E144EE-689C-46FF-82DD-8929115E4CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7806628" y="72058334"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>違いなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6868696</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3081131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBE1ACD-043A-D656-CCFE-C0F7F5ECB8E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1474304" y="75385063"/>
+          <a:ext cx="6810718" cy="3042959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5317434</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2895671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6584673</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3105978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E05809-88A6-447C-BFA1-24763217BFC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6733760" y="78242562"/>
+          <a:ext cx="1267239" cy="210307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6923702</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2694799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314184</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3084164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="吹き出し: 角を丸めた四角形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012440D3-437A-4647-9F2E-DDF858F20A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8340028" y="78041690"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①デバイスの選択をクリックします。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1441174</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>460585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2791239</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>695739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20256522-FCF5-4062-ACCD-593F19684679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="75807476"/>
+          <a:ext cx="1350065" cy="235154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3221935</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>369476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6311352</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>758841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="吹き出し: 角を丸めた四角形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742942DD-D3AB-411B-8FFB-87BAC6453AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638261" y="75716367"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64746"/>
+            <a:gd name="adj2" fmla="val 208"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chrome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>46446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6916045</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3114261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B00D921-B679-85AE-3DFF-78260F027227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466022" y="78631837"/>
+          <a:ext cx="6866349" cy="3067815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6203674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>394316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6377609</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>621196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EE5FD6-894F-47B8-B5B8-2A93497C3C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="78979707"/>
+          <a:ext cx="173935" cy="226880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4820478</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>866423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6170544</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1076730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E05A16A-74EE-4324-AAF9-B1F60059F4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6236804" y="82541227"/>
+          <a:ext cx="1350066" cy="210307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6626087</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>236946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16569</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>626311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="吹き出し: 角を丸めた四角形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178381AC-771F-4B4F-AE9B-9D1445317299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8042413" y="78822337"/>
+          <a:ext cx="3089417" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61529"/>
+            <a:gd name="adj2" fmla="val 27862"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①実行リストをクリックします。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6783456</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>932684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1322049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="吹き出し: 角を丸めた四角形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F31A467-1B02-4904-B7E2-A84EBFA1AF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8199782" y="82607488"/>
+          <a:ext cx="3429000" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68601"/>
+            <a:gd name="adj2" fmla="val -42336"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Run</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Without</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Debugging</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」をクリックします。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6899412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>699953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FCCF50-1533-4DFD-BCE8-16D378C070E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1474305" y="41139717"/>
+          <a:ext cx="6841433" cy="666823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5946914</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>347869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>714696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="吹き出し: 角を丸めた四角形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A9E224-3553-4230-B4E7-A75C7E4CABA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7363240" y="41454456"/>
+          <a:ext cx="3901107" cy="366827"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57792"/>
+            <a:gd name="adj2" fmla="val 4155"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dart pub global activate flutterfire_cli</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を実行します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3321326</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2857138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="図 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AC292D-5702-248E-A588-3CC1EEAECDF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507435" y="85029262"/>
+          <a:ext cx="3230217" cy="2741180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3644348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>745437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7073348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1134802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="吹き出し: 角を丸めた四角形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7696208-EC1C-4C32-9A5B-49A1BA2F060F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5060674" y="83157394"/>
+          <a:ext cx="3429000" cy="389365"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68601"/>
+            <a:gd name="adj2" fmla="val -42336"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面が表示されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3644348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1399761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7073348</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2037521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="吹き出し: 角を丸めた四角形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6D015F-ABA3-4F32-8B50-CEB93B709463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5060674" y="83811718"/>
+          <a:ext cx="3429000" cy="637760"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68601"/>
+            <a:gd name="adj2" fmla="val -42336"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デタラメなメールアドレスとパスワードを入力して、「ユーザー登録」ボタンをクリックします。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3412435</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1432893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6841435</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2070653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="吹き出し: 角を丸めた四角形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB10ED0-4AAA-49BD-AB61-28CABE57EFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4828761" y="86810023"/>
+          <a:ext cx="3429000" cy="637760"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71983"/>
+            <a:gd name="adj2" fmla="val 3119"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」が表示されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>328155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5963479</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4643404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="図 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A329695-5ED0-A1E8-A736-3493A5CBF189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1548847" y="88670459"/>
+          <a:ext cx="5830958" cy="4315249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1843872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1176131</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2070653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB723055-3A82-4A51-B59D-5D112212E1A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1639956" y="90186176"/>
+          <a:ext cx="952501" cy="226781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1651552</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1582142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2161762</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1808923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC0539D-A1C2-48FD-AFB1-022BC391ACC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067878" y="89924446"/>
+          <a:ext cx="510210" cy="226781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2007704</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2716859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5044109</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2943640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9402964-FE6E-43E5-81F0-ACBF44A4FCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3424030" y="91059163"/>
+          <a:ext cx="3036405" cy="226781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3251915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3602934</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3889675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="吹き出し: 角を丸めた四角形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C966B1-3E39-48A3-BE4C-17C0138F456F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590260" y="91594219"/>
+          <a:ext cx="3429000" cy="637760"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35268"/>
+            <a:gd name="adj2" fmla="val -229349"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3064565</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1297220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6493565</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1934980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="吹き出し: 角を丸めた四角形 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE550393-2E6E-4D09-BA5D-3059F5A5B008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4480891" y="89639524"/>
+          <a:ext cx="3429000" cy="637760"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76089"/>
+            <a:gd name="adj2" fmla="val 10911"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「ユーザー」を選択します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5557629</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2564460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3064566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="吹き出し: 角を丸めた四角形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E9B457-AF74-4370-97AF-1F641C34852C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6973955" y="90906764"/>
+          <a:ext cx="2998306" cy="500106"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69459"/>
+            <a:gd name="adj2" fmla="val 4286"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録したユーザー情報が追加されています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,7 +7978,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -867,18 +8004,18 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -898,7 +8035,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="24"/>
@@ -906,7 +8043,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="21"/>
@@ -914,7 +8051,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="21"/>
@@ -922,7 +8059,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="21"/>
@@ -930,7 +8067,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="24"/>
@@ -938,7 +8075,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="21"/>
@@ -946,7 +8083,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="21"/>
@@ -954,7 +8091,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="26"/>
@@ -962,7 +8099,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="21"/>
@@ -970,7 +8107,7 @@
     </row>
     <row r="17" spans="2:5" ht="199.5" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -980,7 +8117,7 @@
     </row>
     <row r="18" spans="2:5" ht="370.5" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -990,7 +8127,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="21"/>
       <c r="E19" s="6"/>
     </row>
@@ -1080,10 +8217,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" x14ac:dyDescent="0.4"/>
@@ -1109,18 +8246,18 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -1140,87 +8277,93 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="29"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="29"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="21"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="29"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="21"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="29"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="17">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="17">
         <v>45331</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="10"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
@@ -1245,6 +8388,12 @@
       <c r="C27" s="12"/>
       <c r="D27" s="20"/>
       <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1252,8 +8401,12 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D9" location="'【補足】5-2. Authentication概要'!A1" display="'【補足】5-2. Authentication概要'!A1" xr:uid="{0A6A14FD-8931-48B0-BD7E-0CD60D1D443A}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{AE432BBB-6CA5-4572-B65B-3F0EE0B76A33}"/>
+  </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
@@ -1479,4 +8632,208 @@
     <oddHeader xml:space="preserve">&amp;R©TK-free  </oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1480929C-BA9F-42BE-96DF-65CCD8163185}">
+  <dimension ref="A2:K41"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.25" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="C5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="369" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" ht="374.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="374.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="C12" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C14" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="316.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="2:11" ht="390" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="46"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C20" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="363" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="2:11" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="C23" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="327.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="48"/>
+    </row>
+    <row r="26" spans="2:11" ht="162.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="48"/>
+    </row>
+    <row r="27" spans="2:11" ht="134.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="2:11" ht="306" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="2:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="C30" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="2:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="48"/>
+    </row>
+    <row r="33" spans="3:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="3:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="47"/>
+    </row>
+    <row r="35" spans="3:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="3:3" ht="255" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="3:3" ht="255" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="3:3" ht="233.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="3:3" ht="233.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="3:3" ht="378" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="3" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R©TK-free</oddHeader>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="10" max="7" man="1"/>
+    <brk id="18" max="7" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>